--- a/medicine/Mort/Cimetière_de_Vyšehrad/Cimetière_de_Vyšehrad.xlsx
+++ b/medicine/Mort/Cimetière_de_Vyšehrad/Cimetière_de_Vyšehrad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vy%C5%A1ehrad</t>
+          <t>Cimetière_de_Vyšehrad</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en 1869, le cimetière de Vyšehrad (Vyšehradský hřbitov en tchèque), à Vyšehrad, un quartier de Prague, est un cimetière où sont enterrés de nombreux artistes, scientifiques, politiques et sportifs. Il se trouve sur une colline du sud de la ville, en bordure de la basilique Saint-Pierre-et-Saint-Paul. Certaines personnalités sont regroupées dans la tombe collective appelée Slavín.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Vy%C5%A1ehrad</t>
+          <t>Cimetière_de_Vyšehrad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Quelques personnalités enterrées au cimetière de Vyšehrad</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mikoláš Aleš, peintre ;
 Karel Ančerl, chef d'orchestre ;
